--- a/SortingResearch/OperationsResults100_4100.xlsx
+++ b/SortingResearch/OperationsResults100_4100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidnatroshvili/CLionProjects/CPP_AaDS_private/SortingResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6832484E-B806-2140-BA0E-43A3CAD083E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC153C74-C0D5-4948-B27B-37365BA0ECDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>размеры массива</t>
   </si>
@@ -180,12 +180,27 @@
   <si>
     <t>MergeSort отсортированный в обратном порядке</t>
   </si>
+  <si>
+    <t>работает быстрее на элементах 0-5</t>
+  </si>
+  <si>
+    <t>работает быстрее на почти отсортированном</t>
+  </si>
+  <si>
+    <t>Работает быстре на массиве 0-4000</t>
+  </si>
+  <si>
+    <t>Работает быстрее на почти отсортированном массиве</t>
+  </si>
+  <si>
+    <t>на 0-5 работает быстрее сортировка слиянием</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +212,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,11 +259,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -45409,15 +45432,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>198299</xdr:colOff>
+      <xdr:colOff>54118</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>154629</xdr:rowOff>
+      <xdr:rowOff>54592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91352</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>90460</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>659503</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>181606</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -45554,14 +45577,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>90813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>1230</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -45876,16 +45899,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>382202</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>133721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>618067</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225862</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>135466</xdr:rowOff>
+      <xdr:rowOff>174089</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -45913,15 +45936,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>550334</xdr:colOff>
+      <xdr:colOff>559604</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:rowOff>97149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>491066</xdr:colOff>
+      <xdr:colOff>500336</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:rowOff>131016</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -46342,10 +46365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA42"/>
+  <dimension ref="A1:BA104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G61" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P117" sqref="P117"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="AT97" sqref="AT97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53129,6 +53152,71 @@
         <v>4100</v>
       </c>
     </row>
+    <row r="61" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX61" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="K62" t="s">
+        <v>53</v>
+      </c>
+      <c r="S62" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="3:42" x14ac:dyDescent="0.2">
+      <c r="C77" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="3:42" x14ac:dyDescent="0.2">
+      <c r="S78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="3:42" x14ac:dyDescent="0.2">
+      <c r="K79" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="U103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>57</v>
+      </c>
+      <c r="L104" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
